--- a/data/outputs/能源化工元源数据文件_elsevier/6BioEnergy Research.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/6BioEnergy Research.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS170"/>
+  <dimension ref="A1:BU170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +941,12 @@
           <t>2-s2.0-84947041972</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84947038196</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1383,6 +1405,12 @@
           <t>2-s2.0-84947026535</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1606,6 +1634,12 @@
           <t>2-s2.0-84947040337</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1829,6 +1863,12 @@
           <t>2-s2.0-84947024408</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2052,6 +2092,12 @@
           <t>2-s2.0-84947039082</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2275,6 +2321,12 @@
           <t>2-s2.0-84947044458</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2489,6 +2541,12 @@
         <is>
           <t>2-s2.0-84947035855</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -2697,6 +2755,12 @@
           <t>2-s2.0-84947019771</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2912,6 +2976,12 @@
           <t>2-s2.0-84947038909</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3131,6 +3201,12 @@
           <t>2-s2.0-84947045675</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3356,6 +3432,12 @@
           <t>2-s2.0-84947043378</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3583,6 +3665,12 @@
           <t>2-s2.0-84947032964</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3806,6 +3894,12 @@
           <t>2-s2.0-84947020174</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4029,6 +4123,12 @@
           <t>2-s2.0-84947018186</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4254,6 +4354,12 @@
           <t>2-s2.0-84947034034</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4477,6 +4583,12 @@
           <t>2-s2.0-84947045237</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4706,6 +4818,12 @@
           <t>2-s2.0-84947028626</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4921,6 +5039,12 @@
           <t>2-s2.0-84947029453</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5144,6 +5268,12 @@
           <t>2-s2.0-84947029789</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5367,6 +5497,12 @@
           <t>2-s2.0-84947032140</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5584,6 +5720,12 @@
           <t>2-s2.0-84947034580</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5799,6 +5941,12 @@
           <t>2-s2.0-84947039008</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6022,6 +6170,12 @@
           <t>2-s2.0-84947029221</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6237,6 +6391,12 @@
           <t>2-s2.0-84947037976</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6460,6 +6620,12 @@
           <t>2-s2.0-84947044418</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6678,6 +6844,12 @@
         <is>
           <t>2-s2.0-84947026734</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -6886,6 +7058,12 @@
           <t>2-s2.0-84947027520</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7101,6 +7279,12 @@
           <t>2-s2.0-84947043342</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7320,6 +7504,12 @@
           <t>2-s2.0-84947045143</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7543,6 +7733,12 @@
           <t>2-s2.0-84947025181</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7762,6 +7958,12 @@
           <t>2-s2.0-84947019205</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7985,6 +8187,12 @@
           <t>2-s2.0-84947031058</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8208,6 +8416,12 @@
           <t>2-s2.0-84946722803</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8431,6 +8645,12 @@
           <t>2-s2.0-84947028010</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8654,6 +8874,12 @@
           <t>2-s2.0-84947023732</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8877,6 +9103,12 @@
           <t>2-s2.0-84947044811</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9100,6 +9332,12 @@
           <t>2-s2.0-84947031224</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9323,6 +9561,12 @@
           <t>2-s2.0-84947019629</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9538,6 +9782,12 @@
           <t>2-s2.0-84947030540</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9757,6 +10007,12 @@
           <t>2-s2.0-84947024716</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9980,6 +10236,12 @@
           <t>2-s2.0-84947041044</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10203,6 +10465,12 @@
           <t>2-s2.0-84947034797</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10418,6 +10686,12 @@
           <t>2-s2.0-84947032232</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10643,6 +10917,12 @@
           <t>2-s2.0-84947021293</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10866,6 +11146,12 @@
           <t>2-s2.0-84947043765</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11091,6 +11377,12 @@
           <t>2-s2.0-84947022329</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11320,6 +11612,12 @@
           <t>2-s2.0-84941168746</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11543,6 +11841,12 @@
           <t>2-s2.0-84940961741</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11768,6 +12072,12 @@
           <t>2-s2.0-84940955604</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11993,6 +12303,12 @@
           <t>2-s2.0-84940956739</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12220,6 +12536,12 @@
           <t>2-s2.0-84940954888</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12449,6 +12771,12 @@
           <t>2-s2.0-84940953693</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12668,6 +12996,12 @@
           <t>2-s2.0-84940963456</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12897,6 +13231,12 @@
           <t>2-s2.0-84940938727</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13122,6 +13462,12 @@
           <t>2-s2.0-84940958157</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13347,6 +13693,12 @@
           <t>2-s2.0-84940958093</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13570,6 +13922,12 @@
           <t>2-s2.0-84940959224</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13785,6 +14143,12 @@
           <t>2-s2.0-84940959222</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14010,6 +14374,12 @@
           <t>2-s2.0-84940962235</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14239,6 +14609,12 @@
           <t>2-s2.0-84940955784</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14470,6 +14846,12 @@
           <t>2-s2.0-84940961583</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14691,6 +15073,12 @@
           <t>2-s2.0-84940959352</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14902,6 +15290,12 @@
           <t>2-s2.0-84940963061</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15117,6 +15511,12 @@
           <t>2-s2.0-84940962746</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15340,6 +15740,12 @@
           <t>2-s2.0-84940960016</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15555,6 +15961,12 @@
           <t>2-s2.0-84940963065</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15779,6 +16191,12 @@
         <is>
           <t>2-s2.0-84940942062</t>
         </is>
+      </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -15989,6 +16407,12 @@
           <t>2-s2.0-84940958087</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16196,6 +16620,12 @@
           <t>2-s2.0-84940958719</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16419,6 +16849,12 @@
           <t>2-s2.0-84940960683</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16638,6 +17074,12 @@
           <t>2-s2.0-84940960340</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16853,6 +17295,12 @@
           <t>2-s2.0-84940953645</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17076,6 +17524,12 @@
           <t>2-s2.0-84940954385</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17299,6 +17753,12 @@
           <t>2-s2.0-84940958035</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17522,6 +17982,12 @@
           <t>2-s2.0-84940963677</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17745,6 +18211,12 @@
           <t>2-s2.0-84940955562</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17960,6 +18432,12 @@
           <t>2-s2.0-84940963695</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18179,6 +18657,12 @@
           <t>2-s2.0-84940953344</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18402,6 +18886,12 @@
           <t>2-s2.0-84940954194</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18621,6 +19111,12 @@
           <t>2-s2.0-84940956571</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18836,6 +19332,12 @@
           <t>2-s2.0-84940962875</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -19063,6 +19565,12 @@
           <t>2-s2.0-84940959574</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19286,6 +19794,12 @@
           <t>2-s2.0-84940963754</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19503,6 +20017,12 @@
           <t>2-s2.0-84940957908</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19726,6 +20246,12 @@
           <t>2-s2.0-84940956525</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19951,6 +20477,12 @@
           <t>2-s2.0-84940958428</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -20166,6 +20698,12 @@
           <t>2-s2.0-84940963294</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -20381,6 +20919,12 @@
           <t>2-s2.0-84940959043</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20596,6 +21140,12 @@
           <t>2-s2.0-84940962517</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20814,6 +21364,12 @@
         <is>
           <t>2-s2.0-84940957544</t>
         </is>
+      </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -21018,6 +21574,12 @@
           <t>2-s2.0-84940959482</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -21241,6 +21803,12 @@
           <t>2-s2.0-84940963722</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21468,6 +22036,12 @@
           <t>2-s2.0-84940954017</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21695,6 +22269,12 @@
           <t>2-s2.0-84940956843</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21920,6 +22500,12 @@
           <t>2-s2.0-84940919771</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -22143,6 +22729,12 @@
           <t>2-s2.0-84940963238</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -22358,6 +22950,12 @@
           <t>2-s2.0-84940960225</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22583,6 +23181,12 @@
           <t>2-s2.0-85027929273</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22798,6 +23402,12 @@
           <t>2-s2.0-84939891790</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -23023,6 +23633,12 @@
           <t>2-s2.0-84939896921</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -23238,6 +23854,12 @@
           <t>2-s2.0-84939962635</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -23453,6 +24075,12 @@
           <t>2-s2.0-84930480388</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23676,6 +24304,12 @@
           <t>2-s2.0-84939976112</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23897,6 +24531,12 @@
           <t>2-s2.0-84940005351</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -24114,6 +24754,12 @@
           <t>2-s2.0-84929061570</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -24333,6 +24979,12 @@
           <t>2-s2.0-84929466079</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24548,6 +25200,12 @@
           <t>2-s2.0-84939891271</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24771,6 +25429,12 @@
           <t>2-s2.0-84929461595</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24998,6 +25662,12 @@
           <t>2-s2.0-84923805448</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -25209,6 +25879,12 @@
           <t>2-s2.0-84939984629</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -25434,6 +26110,12 @@
           <t>2-s2.0-84939977906</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25657,6 +26339,12 @@
           <t>2-s2.0-84939980928</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25868,6 +26556,12 @@
           <t>2-s2.0-84939981437</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -26079,6 +26773,12 @@
           <t>2-s2.0-84940007105</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -26302,6 +27002,12 @@
           <t>2-s2.0-84939958325</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -26526,6 +27232,12 @@
         <is>
           <t>2-s2.0-84939960877</t>
         </is>
+      </c>
+      <c r="BT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="119">
@@ -26734,6 +27446,12 @@
           <t>2-s2.0-84940005789</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26959,6 +27677,12 @@
           <t>2-s2.0-84939966561</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -27184,6 +27908,12 @@
           <t>2-s2.0-84939796390</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -27407,6 +28137,12 @@
           <t>2-s2.0-84940003741</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -27626,6 +28362,12 @@
           <t>2-s2.0-84939950936</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27849,6 +28591,12 @@
           <t>2-s2.0-84939984041</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -28068,6 +28816,12 @@
           <t>2-s2.0-84939971374</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -28291,6 +29045,12 @@
           <t>2-s2.0-84939956606</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -28512,6 +29272,12 @@
           <t>2-s2.0-84939974750</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28727,6 +29493,12 @@
           <t>2-s2.0-84939998446</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28942,6 +29714,12 @@
           <t>2-s2.0-84939984391</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -29161,6 +29939,12 @@
           <t>2-s2.0-84939946419</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -29380,6 +30164,12 @@
           <t>2-s2.0-84923702554</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -29607,6 +30397,12 @@
           <t>2-s2.0-84923702606</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -29826,6 +30622,12 @@
           <t>2-s2.0-84923702337</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -30049,6 +30851,12 @@
           <t>2-s2.0-84923702403</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -30264,6 +31072,12 @@
           <t>2-s2.0-84923701817</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -30479,6 +31293,12 @@
           <t>2-s2.0-84923702379</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -30702,6 +31522,12 @@
           <t>2-s2.0-84923702510</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30931,6 +31757,12 @@
           <t>2-s2.0-84923702416</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -31150,6 +31982,12 @@
           <t>2-s2.0-84923702532</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -31378,6 +32216,12 @@
         <is>
           <t>2-s2.0-84923702505</t>
         </is>
+      </c>
+      <c r="BT140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -31586,6 +32430,12 @@
           <t>2-s2.0-84923702477</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -31809,6 +32659,12 @@
           <t>2-s2.0-84923702304</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -32028,6 +32884,12 @@
           <t>2-s2.0-84923702723</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -32243,6 +33105,12 @@
           <t>2-s2.0-85027922631</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -32458,6 +33326,12 @@
           <t>2-s2.0-85027933223</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -32673,6 +33547,12 @@
           <t>2-s2.0-85027956177</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -32900,6 +33780,12 @@
           <t>2-s2.0-85028160002</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -33125,6 +34011,12 @@
         <v>2647311</v>
       </c>
       <c r="BS148" t="inlineStr"/>
+      <c r="BT148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -33348,6 +34240,12 @@
           <t>2-s2.0-85027924565</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -33563,6 +34461,12 @@
           <t>2-s2.0-85027927305</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -33782,6 +34686,12 @@
           <t>2-s2.0-84923220230</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -34005,6 +34915,12 @@
           <t>2-s2.0-84923259451</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -34230,6 +35146,12 @@
           <t>2-s2.0-84923218807</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -34459,6 +35381,12 @@
           <t>2-s2.0-84923233571</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -34674,6 +35602,12 @@
           <t>2-s2.0-84923233574</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -34891,6 +35825,12 @@
           <t>2-s2.0-84923250089</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -35110,6 +36050,12 @@
           <t>2-s2.0-84925489047</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -35335,6 +36281,12 @@
           <t>2-s2.0-84923702586</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -35554,6 +36506,12 @@
           <t>2-s2.0-84923259831</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -35775,6 +36733,12 @@
           <t>2-s2.0-84925490980</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -35998,6 +36962,12 @@
           <t>2-s2.0-84923702614</t>
         </is>
       </c>
+      <c r="BT161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -36221,6 +37191,12 @@
           <t>2-s2.0-84923701764</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -36436,6 +37412,12 @@
           <t>2-s2.0-84923702558</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -36651,6 +37633,12 @@
           <t>2-s2.0-84923702455</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -36870,6 +37858,12 @@
           <t>2-s2.0-84923702397</t>
         </is>
       </c>
+      <c r="BT165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -37089,6 +38083,12 @@
           <t>2-s2.0-84923702295</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -37312,6 +38312,12 @@
           <t>2-s2.0-85028144125</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -37535,6 +38541,12 @@
           <t>2-s2.0-84923223595</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -37750,6 +38762,12 @@
           <t>2-s2.0-84925537363</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -37969,6 +38987,12 @@
           <t>2-s2.0-84925537529</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
